--- a/Regra(Negocio-funcional)/Pasta1.xlsx
+++ b/Regra(Negocio-funcional)/Pasta1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44761640804\Desktop\3T-Arthur\Regra(Negocio-funcional)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44761640804\Desktop\3T-Arthur\Senai-3T-Tarde\Regra(Negocio-funcional)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C39CD5DE-3ED1-4EDD-9088-D7EC49D7A49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D4747C-98D1-4B8A-BE33-57A5CAEE79BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{69501F4B-EE76-472C-AD56-CB9256D6150D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Regra de Negocio</t>
   </si>
@@ -33,9 +33,6 @@
     <t>faça uma tela mostrando a lista de produtos retornada</t>
   </si>
   <si>
-    <t>Requisito Funcional</t>
-  </si>
-  <si>
     <t>A lista deve suportar paginação</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Consumindo o endpoint https://pacific-wave-51314.herokuapp.com/products?page=&lt;page_num&gt;&amp;size=&lt;page_size&gt;</t>
   </si>
   <si>
-    <t>Requisito não funcional</t>
-  </si>
-  <si>
     <t>A imagem exibida deve vir do imageObjects com featured</t>
   </si>
   <si>
@@ -76,6 +70,30 @@
   </si>
   <si>
     <t>Requisito funcional</t>
+  </si>
+  <si>
+    <t>RF002</t>
+  </si>
+  <si>
+    <t>RF001</t>
+  </si>
+  <si>
+    <t>RF003</t>
+  </si>
+  <si>
+    <t>RNF001</t>
+  </si>
+  <si>
+    <t>RNF002</t>
+  </si>
+  <si>
+    <t>RF004</t>
+  </si>
+  <si>
+    <t>RF005</t>
+  </si>
+  <si>
+    <t>RF006</t>
   </si>
 </sst>
 </file>
@@ -430,21 +448,21 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="1" max="1" width="78.5546875" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -452,28 +470,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -481,58 +499,58 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
